--- a/MessSetups.xlsx
+++ b/MessSetups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesrolfes/Desktop/StudiumHA/Uni/Sem2/Projekt/repo/MovingSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9079A3E1-5E94-934B-89C8-DA57D8D69E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987BD13-DAAA-ED4E-B7F4-391FB2329466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16480" xr2:uid="{44C5D327-091D-E044-A440-A432B9F5F91E}"/>
   </bookViews>
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F571874C-C3D1-3C4D-90DD-B4DEAF2D2387}">
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="116" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="125" zoomScaleNormal="116" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
